--- a/input2/進捗管理反映ツール用INPUT2.xlsx
+++ b/input2/進捗管理反映ツール用INPUT2.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kanri_aforce\git\ITSupportShuhen\input2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFF5BDCC-9B1D-40C0-ADA9-22C163E6D5C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45380914-0EE8-4783-86F8-16FEA2761A0C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4470" yWindow="1635" windowWidth="18000" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4125" yWindow="1290" windowWidth="18000" windowHeight="9360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Table1" sheetId="2" r:id="rId1"/>
-    <sheet name="Table2" sheetId="4" r:id="rId2"/>
+    <sheet name="Table3" sheetId="2" r:id="rId1"/>
+    <sheet name="Table4" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -432,7 +432,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{884F2672-54EB-4A6F-B774-754B8B6FF43E}">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -530,8 +530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45FDD7CA-21D0-4E02-9D51-C5F874362A7D}">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
